--- a/data/municipal_elections/raw_data/schleswig_holstein/sh_1994.xlsx
+++ b/data/municipal_elections/raw_data/schleswig_holstein/sh_1994.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flosic/Documents/GitHub/german_election_data/data/municipal_elections/raw_data/schleswig_holstein/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentheddesheimer/Documents/GitHub/german_election_data/data/municipal_elections/raw_data/schleswig_holstein/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29967B1D-602A-3740-AA48-13CFCF73C282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7BFB45-1C99-8B42-9C95-77001C767A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19560" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17727" uniqueCount="4376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17727" uniqueCount="4377">
   <si>
     <t>1</t>
   </si>
@@ -13156,6 +13156,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>59 049</t>
   </si>
 </sst>
 </file>
@@ -13267,7 +13270,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13581,8 +13584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A742" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B763" sqref="B763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -57262,7 +57265,7 @@
     </row>
     <row r="764" spans="1:23" ht="14" x14ac:dyDescent="0.2">
       <c r="A764" s="11" t="s">
-        <v>3115</v>
+        <v>4376</v>
       </c>
       <c r="B764" s="11" t="s">
         <v>3169</v>
